--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_37.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2118735.588917842</v>
+        <v>2159497.440420703</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17338441.47276634</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484439</v>
+        <v>278692.0725916859</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5658122.988573401</v>
+        <v>5741347.218252448</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>89.96905240294807</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -668,16 +668,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>198.6992250498862</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>121.5488393606651</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>152.355512532834</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>92.55552418708581</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>327.2879775827834</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
@@ -1063,7 +1063,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>34.06158462964938</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>216.2017488798277</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>38.37722035239046</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>203.8334860870014</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1309,7 +1309,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>142.0902352657462</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1376,7 +1376,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>141.7368267265325</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1537,16 +1537,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>35.34780583513513</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1591,7 +1591,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>188.4544525887582</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>134.3364041133033</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1768,7 +1768,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1777,13 +1777,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>166.2277260299479</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791304972</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2014,13 +2014,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2068,7 +2068,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>159.6574681744388</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791304972</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>24.62703520776672</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2251,7 +2251,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170442</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2494,7 +2494,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2533,10 +2533,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>163.6395778340019</v>
       </c>
       <c r="W25" t="n">
-        <v>264.1739873406492</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225831</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>419.2974898580659</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>431.0219631664181</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>428.8116020553071</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>426.697912471295</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8496703728915</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>394.6447681409759</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>283.4997680892231</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.07627015600853</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>215.1274699336989</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U35" t="n">
-        <v>253.8909947341604</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>356.2516956435189</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>398.0678151210842</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>412.2119538644896</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.4641775413503</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>187.1613476098044</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>168.0970094796145</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>161.4801279484997</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>108.2460918272216</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>172.2008985758685</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>135.7640676445364</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>154.9098700929905</v>
+        <v>18.05677735226066</v>
       </c>
       <c r="T37" t="n">
-        <v>240.6815670353365</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>272.9095858174329</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>281.346868126281</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>266.5670554475786</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1987521979288</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.40638905704</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>419.2974898580659</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>431.0219631664181</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>428.8116020553071</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>426.697912471295</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8496703728915</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>394.6447681409759</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>283.4997680892231</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.07627015600853</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>215.1274699336989</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>253.8909947341604</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>356.2516956435189</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>398.0678151210842</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>412.2119538644896</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.4641775413503</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>187.1613476098044</v>
+        <v>50.30825486907117</v>
       </c>
       <c r="C40" t="n">
-        <v>168.0970094796145</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>161.4801279484997</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>165.3213387897773</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>172.2008985758685</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>161.1962773024378</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>72.40241347253298</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>240.6815670353365</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>272.9095858174329</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>281.346868126281</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>266.5670554475786</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1987521979288</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.40638905704</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>419.2974898580659</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>431.0219631664181</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>428.8116020553071</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>426.697912471295</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8496703728915</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>394.6447681409759</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>283.4997680892231</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.07627015600853</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>215.1274699336989</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>253.8909947341604</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>356.2516956435189</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>110.367644454329</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>412.2119538644896</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.4641775413503</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>187.1613476098044</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>168.0970094796145</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>161.4801279484997</v>
+        <v>43.77283765622057</v>
       </c>
       <c r="E43" t="n">
-        <v>165.3213387897773</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>172.2008985758685</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>161.1962773024378</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>154.9098700929905</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>158.1741104148788</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>272.9095858174329</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>281.346868126281</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>266.5670554475786</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1987521979288</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.40638905704</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>419.2974898580659</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>431.0219631664181</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>428.8116020553071</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>426.697912471295</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8496703728915</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>390.4443655634434</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.07627015600853</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>215.1274699336989</v>
+        <v>217.8665548556944</v>
       </c>
       <c r="U44" t="n">
-        <v>253.8909947341604</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>356.2516956435189</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>398.0678151210842</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>412.2119538644896</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.4641775413503</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>187.1613476098044</v>
+        <v>50.30825486907094</v>
       </c>
       <c r="C46" t="n">
-        <v>168.0970094796145</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>161.4801279484997</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>165.3213387897773</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>172.2008985758685</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>161.1962773024378</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>72.402413472533</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>240.6815670353365</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>272.9095858174329</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>281.346868126281</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>266.5670554475786</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1987521979288</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.40638905704</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>729.203080354842</v>
+        <v>1243.268593282432</v>
       </c>
       <c r="C2" t="n">
-        <v>695.1010115786694</v>
+        <v>1209.16652450626</v>
       </c>
       <c r="D2" t="n">
-        <v>663.231630793518</v>
+        <v>1177.297143721108</v>
       </c>
       <c r="E2" t="n">
-        <v>234.6499565307863</v>
+        <v>748.7154694583763</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
         <v>687.9235674375537</v>
@@ -4343,10 +4343,10 @@
         <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
+        <v>687.9235674375537</v>
+      </c>
+      <c r="P2" t="n">
         <v>1107.976466382457</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1528.02936532736</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4358,22 +4358,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1134.24202645431</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V2" t="n">
-        <v>771.6250763881362</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="W2" t="n">
-        <v>770.8100258395735</v>
+        <v>1353.494203032709</v>
       </c>
       <c r="X2" t="n">
-        <v>755.7079664592883</v>
+        <v>1338.392143652423</v>
       </c>
       <c r="Y2" t="n">
-        <v>751.4622467993457</v>
+        <v>1334.146423992481</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4395,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4410,19 +4410,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>637.7503761804292</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C4" t="n">
-        <v>465.1886646636541</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>299.3106718651768</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>299.3106718651768</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>1181.483761245743</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1574.406824665604</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>1302.380420251896</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>1056.988665585308</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y4" t="n">
-        <v>829.5689948994163</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>846.6806259663152</v>
+        <v>978.0460105832983</v>
       </c>
       <c r="C5" t="n">
-        <v>418.0989517035836</v>
+        <v>539.9035377667217</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>103.9937529411661</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>74.25941213986536</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.6870740423951</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>557.7649106726467</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>557.7649106726467</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>557.7649106726467</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>557.7649106726467</v>
       </c>
       <c r="O5" t="n">
-        <v>1294.102365436318</v>
+        <v>1181.865694717427</v>
       </c>
       <c r="P5" t="n">
-        <v>1528.02936532736</v>
+        <v>1805.966478762206</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720801</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473858</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473858</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473858</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2262.397026790874</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1899.780076724701</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1494.924622135734</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1479.822562755449</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>1071.536439055102</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326468</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993476</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760927</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>542.1413766661235</v>
+        <v>593.0357356940422</v>
       </c>
       <c r="C7" t="n">
-        <v>369.5796651493484</v>
+        <v>420.4740241772671</v>
       </c>
       <c r="D7" t="n">
-        <v>203.7016723508711</v>
+        <v>254.5960313787898</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>84.83802762952703</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>325.1908411606128</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>743.4007229285738</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473858</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.20150817923</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2340.960139477226</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2095.080693055681</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1816.647692308787</v>
       </c>
       <c r="V7" t="n">
-        <v>1478.797825151298</v>
+        <v>1529.692184179217</v>
       </c>
       <c r="W7" t="n">
-        <v>1206.77142073759</v>
+        <v>1257.665779765509</v>
       </c>
       <c r="X7" t="n">
-        <v>961.3796660710025</v>
+        <v>1012.274025098921</v>
       </c>
       <c r="Y7" t="n">
-        <v>733.9599953851107</v>
+        <v>784.8543544130293</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1638.255731448808</v>
+        <v>345.1411632272193</v>
       </c>
       <c r="C8" t="n">
-        <v>1209.674057186077</v>
+        <v>139.2487530383289</v>
       </c>
       <c r="D8" t="n">
-        <v>781.092382923345</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E8" t="n">
-        <v>751.3580421220443</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>323.4906125312521</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>323.4906125312521</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1277.130531135514</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1277.130531135514</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>1598.869320833163</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>1179.726857412474</v>
       </c>
       <c r="Y8" t="n">
-        <v>1677.020600491627</v>
+        <v>771.4407337121271</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1113.00182921349</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1675.765608785789</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U10" t="n">
-        <v>1675.765608785789</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V10" t="n">
-        <v>1532.240118618369</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W10" t="n">
-        <v>1532.240118618369</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X10" t="n">
-        <v>1532.240118618369</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y10" t="n">
-        <v>1304.820447932477</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2232.363075206154</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1794.220602389577</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1358.310817564021</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.142305719039</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>787.2748761282467</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8770447515105</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>96.7468901947269</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.33010082186691</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.5847882747847</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1365.935080232963</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2440.995046485822</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M11" t="n">
-        <v>2440.995046485822</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N11" t="n">
-        <v>2461.516713731049</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>3441.696380301355</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>4270.006255134751</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4816.505041093345</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>4816.505041093345</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>4732.853167277182</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4512.785940150221</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4253.563637467238</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3890.946687401064</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3486.091232812097</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3066.948769391408</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2658.662645691062</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.5018458131597</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.045384649802</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>400.9550957963552</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>306.8346811233089</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.4508427394705</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.0657530056544</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.33010082186691</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.3937739823245</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>446.9520989485368</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>446.9520989485368</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>446.9520989485368</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>446.9520989485368</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>446.9520989485368</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>446.9520989485368</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1101.658145574261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.397084206336</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.569862300676</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.114424749059</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1565.935781079661</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1389.599234079629</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.481716141628</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.158961874822</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.291526113702</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>723.8057468929228</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>998.6812073955044</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C13" t="n">
-        <v>826.1194958787295</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D13" t="n">
-        <v>660.2415030802522</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E13" t="n">
-        <v>490.4834993309894</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F13" t="n">
-        <v>490.4834993309894</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>324.8922243568171</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>184.9900500471916</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>96.33010082186691</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>182.9097859865568</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>457.6682405576924</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>875.8781223256535</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.361989506566</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1777.620792664211</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.290041889992</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2544.796935860334</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2712.989710724667</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2691.571889430038</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2691.571889430038</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2445.692443008494</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2167.259442261599</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1880.30393413203</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1608.277529718321</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X13" t="n">
-        <v>1417.919496800383</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y13" t="n">
-        <v>1190.499826114491</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.969308202876</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.8268353863</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.917050560744</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.142305719039</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>787.2748761282469</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8770447515107</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H14" t="n">
-        <v>96.7468901947269</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.33010082186691</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.5847882747847</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1365.935080232963</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2440.995046485822</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2440.995046485822</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2440.995046485822</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3421.174713056128</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4249.484587889524</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4795.983373848119</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>4816.505041093345</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>4732.853167277182</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4512.785940150221</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4253.563637467238</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>3890.946687401064</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3486.091232812097</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3066.948769391408</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2658.662645691062</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.5018458131597</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.045384649802</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>400.9550957963552</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>306.8346811233089</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.4508427394705</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.0657530056544</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.33010082186691</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.3937739823245</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>446.9520989485368</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1101.658145574261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.397084206336</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.569862300676</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.114424749059</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1565.935781079661</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.599234079629</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.481716141628</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.158961874822</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.291526113702</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>723.8057468929228</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>843.9189936610986</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>671.3572821443236</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>671.3572821443236</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>501.5992783950609</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>324.8922243568171</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>324.8922243568171</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>184.9900500471916</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>96.33010082186691</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>182.9097859865568</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>457.6682405576923</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>875.8781223256534</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.361989506566</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1777.620792664211</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.290041889992</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2544.796935860334</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2712.989710724667</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.571889430038</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2532.330520728035</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T16" t="n">
-        <v>2286.45107430649</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>2008.018073559596</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>1721.062565430026</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1449.036161016318</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1203.64440634973</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1035.737612380086</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5501,13 +5501,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436387</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5519,37 +5519,37 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423627</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
@@ -5558,7 +5558,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5595,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1015.727725908489</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>843.1660143917136</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>677.2880215932363</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E19" t="n">
-        <v>507.5300178439736</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F19" t="n">
-        <v>330.8229638057297</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5695,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2451.623182457406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2173.190181710511</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1886.234673580942</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1614.208269167234</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1368.816514500646</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>1207.546344627476</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5738,13 +5738,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436387</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5759,43 +5759,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R20" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T20" t="n">
         <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5808,16 +5808,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D21" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E21" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F21" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G21" t="n">
         <v>143.9964924545671</v>
@@ -5887,16 +5887,16 @@
         <v>811.7546776883914</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716165</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324585</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831958</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5975,40 +5975,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1008.757289365886</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674087</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057297</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173567</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W25" t="n">
-        <v>1481.568714718365</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X25" t="n">
-        <v>1236.176960051778</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y25" t="n">
-        <v>1008.757289365886</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="26">
@@ -6409,22 +6409,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130894</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.801834709349</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
         <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
         <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.995166752589</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
         <v>1144.575496066698</v>
@@ -6643,7 +6643,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
         <v>2700.681281130895</v>
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6707,7 +6707,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6835,13 +6835,13 @@
         <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
         <v>267.852115244952</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2511.083736995628</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2075.708016625509</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1642.56498424641</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1211.556991851163</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>786.4563147068284</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>387.8252357765496</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>101.4618336662232</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>101.4618336662232</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>101.4618336662232</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>266.1704725488089</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>1423.21830775936</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N35" t="n">
-        <v>2548.949291195807</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>3529.128957766113</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
-        <v>4357.438832599509</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4903.937618558104</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5073.091683311161</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>4992.206561941454</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4774.906087260951</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4518.450537024424</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4158.600339404708</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3756.5116372622</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
-        <v>3340.135926287968</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2934.616555034078</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>607.633578657516</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.1771174941583</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>406.0868286407115</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>311.9664139676652</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>228.5825755838268</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.1974858500107</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>127.5255068266808</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>452.0838317928931</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1647.528817050692</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1764.701595145032</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1701.246157593415</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.067513924017</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1394.730966923985</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1195.613448985984</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1010.290694719178</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>855.4232589580583</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>728.9374797372791</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>854.7832432376788</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>684.9882841673609</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>521.8770438153409</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>412.5375571211777</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>238.5972555293913</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>238.5972555293913</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>190.753212903686</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>468.2233615475944</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>889.1449373883283</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1351.340498642014</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1796.310995872431</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2218.691939170986</v>
+        <v>2203.220781338908</v>
       </c>
       <c r="P37" t="n">
-        <v>2568.910527214101</v>
+        <v>2550.72767530925</v>
       </c>
       <c r="Q37" t="n">
-        <v>2739.814996151206</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R37" t="n">
-        <v>2739.814996151206</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="S37" t="n">
-        <v>2583.340379895661</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2340.227685920573</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2064.561437620136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1780.372681937024</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1511.113029969773</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1268.488027749643</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1043.835109510208</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2511.083736995628</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2075.708016625509</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1642.56498424641</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1211.556991851163</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>786.4563147068283</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>387.8252357765496</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>101.4618336662232</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>536.7165211191411</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.066813077319</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.126779330178</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.126779330178</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>3264.602141907458</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>4244.781808477765</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>5073.091683311161</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5073.091683311161</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5073.091683311161</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>4992.206561941454</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4774.90608726095</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4518.450537024424</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4158.600339404708</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3756.5116372622</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3340.135926287968</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2934.616555034078</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>607.633578657516</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.1771174941583</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.0868286407115</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>311.9664139676652</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>228.5825755838268</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.1974858500107</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>127.5255068266808</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>452.0838317928931</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1647.528817050692</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1764.701595145032</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.246157593415</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.067513924017</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1394.730966923985</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1195.613448985984</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.290694719178</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>855.4232589580583</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>728.9374797372791</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>938.1241085108677</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>768.3291494405498</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>605.21790908853</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>438.2266577857246</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>264.2863561939382</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>190.753212903686</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>468.2233615475944</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>889.1449373883283</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1351.340498642014</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1796.310995872431</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2218.691939170986</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2568.910527214101</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2739.814996151206</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2739.814996151206</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2666.681245168849</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2423.568551193762</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2147.902302893325</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1863.713547210212</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1594.453895242962</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1351.828893022832</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>1127.175974783397</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2505.152997546716</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2069.777277176596</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1636.634244797498</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1205.62625240225</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>780.5255752579155</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>381.8944963276369</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H41" t="n">
-        <v>95.53109421731051</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>95.53109421731051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>530.7857816702284</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1365.136073628406</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2440.196039881266</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2440.196039881266</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2440.196039881266</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3420.375706451572</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4248.685581284968</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4776.554710865526</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>4776.554710865526</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>4695.66958949582</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4478.369114815317</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4221.913564578791</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>3862.063366959075</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3750.580897813287</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3334.205186839055</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2928.685815585166</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>601.7028392086033</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>495.2463780452456</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>400.1560891917989</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>306.0356745187526</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>222.6518361349142</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>137.266746401098</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>95.53109421731051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>121.5947673777681</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>446.1530923439805</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1641.59807760178</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1758.770855696119</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1695.315418144502</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1565.136774475104</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1388.800227475072</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1189.682709537072</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1004.359955270266</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>849.4925195091457</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>723.0067402883665</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>932.1933690619551</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C43" t="n">
-        <v>762.3984099916372</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D43" t="n">
-        <v>599.2871696396172</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E43" t="n">
-        <v>432.2959183368119</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
-        <v>258.3556167450255</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>95.53109421731051</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>95.53109421731051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>95.53109421731051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>184.8224734547733</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>462.2926220986818</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>883.2141979394156</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1345.409759193102</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1790.380256423519</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2212.761199722073</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2562.979787765188</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2733.884256702293</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2733.884256702293</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2577.409640446747</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2417.637811744849</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U43" t="n">
-        <v>2141.971563444412</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V43" t="n">
-        <v>1857.7828077613</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W43" t="n">
-        <v>1588.523155794049</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X43" t="n">
-        <v>1345.898153573919</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y43" t="n">
-        <v>1121.245235334485</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2214.546764549993</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1779.171044179873</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1346.028011800775</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>915.0200194055278</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>489.9193422611928</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>95.53109421731051</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>95.53109421731051</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I44" t="n">
-        <v>95.53109421731051</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J44" t="n">
-        <v>512.1561252921912</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K44" t="n">
-        <v>1346.506417250369</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L44" t="n">
-        <v>2421.566383503228</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M44" t="n">
-        <v>2421.566383503228</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N44" t="n">
-        <v>2421.566383503228</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O44" t="n">
-        <v>3401.746050073535</v>
+        <v>3569.079287993936</v>
       </c>
       <c r="P44" t="n">
-        <v>4230.055924906931</v>
+        <v>4397.389162827332</v>
       </c>
       <c r="Q44" t="n">
-        <v>4776.554710865526</v>
+        <v>4943.887948785927</v>
       </c>
       <c r="R44" t="n">
-        <v>4776.554710865526</v>
+        <v>5113.042013538983</v>
       </c>
       <c r="S44" t="n">
-        <v>4695.669589495819</v>
+        <v>5029.39013972282</v>
       </c>
       <c r="T44" t="n">
-        <v>4478.369114815316</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4221.91356457879</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>3862.063366959074</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3459.974664816565</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>3043.598953842333</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2638.079582588443</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>601.7028392086033</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C45" t="n">
-        <v>495.2463780452456</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D45" t="n">
-        <v>400.1560891917989</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>306.0356745187526</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>222.6518361349142</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>137.266746401098</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H45" t="n">
-        <v>95.53109421731051</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I45" t="n">
-        <v>121.5947673777681</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>446.1530923439805</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1641.59807760178</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1758.770855696119</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S45" t="n">
-        <v>1695.315418144502</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T45" t="n">
-        <v>1565.136774475104</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1388.800227475072</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V45" t="n">
-        <v>1189.682709537072</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1004.359955270266</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>849.4925195091457</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y45" t="n">
-        <v>723.0067402883665</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>932.1933690619546</v>
+        <v>952.756877347711</v>
       </c>
       <c r="C46" t="n">
-        <v>762.398409991637</v>
+        <v>780.1951658309359</v>
       </c>
       <c r="D46" t="n">
-        <v>599.2871696396171</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E46" t="n">
-        <v>432.2959183368116</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F46" t="n">
-        <v>258.3556167450255</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>95.53109421731051</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H46" t="n">
-        <v>95.53109421731051</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I46" t="n">
-        <v>95.53109421731051</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J46" t="n">
-        <v>184.8224734547733</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>462.2926220986818</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L46" t="n">
-        <v>883.2141979394156</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1345.409759193101</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1790.380256423519</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2212.761199722073</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2562.979787765188</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2733.884256702293</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2733.884256702293</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2660.750505719936</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2417.637811744849</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2141.971563444412</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1857.7828077613</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1588.523155794049</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1345.898153573919</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>1121.245235334484</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,10 +8070,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>371.7091627680287</v>
+        <v>409.401749030468</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>72.8058955861128</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741799</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,25 +8374,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>110.4038313238416</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>407.1525905495951</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N11" t="n">
-        <v>20.72895681336013</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>20.72895681336013</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9167,13 +9167,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352447</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>753.9218057523904</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9659,7 +9659,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10583,19 +10583,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>166.3723625076623</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>826.7427904821006</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10841,10 +10841,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11078,10 +11078,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>533.2011409904617</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>420.8333647221017</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11303,7 +11303,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>287.7001706667553</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>54.48338453116341</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>287.7001706667554</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>58.91774794908483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>65.488005804594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,10 +24421,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>120.4463752142719</v>
       </c>
       <c r="W25" t="n">
-        <v>5.132153028922174</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.592177662725</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>57.07524696255568</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>161.1962773024378</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>85.03426481107859</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.46455815968901</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627226</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>135.7640676445364</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>85.03426481107859</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.46455815968901</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>82.50745662045749</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25688,7 +25688,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>287.7001706667552</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>135.7640676445364</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>85.03426481107859</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>18.46455815968901</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>82.50745662045765</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25877,10 +25877,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.200402577532567</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>283.4997680892231</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>139.5921776627263</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>135.7640676445364</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>85.03426481107859</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>18.46455815968901</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>82.50745662045748</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>472982.2718863428</v>
+        <v>483550.8739057389</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>472982.2718863428</v>
+        <v>485453.7739440102</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>480037.8631917381</v>
+        <v>501851.8728118659</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>480037.8631917381</v>
+        <v>501851.8728118659</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>501851.8728118659</v>
+        <v>501851.8728118658</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>502751.3613570596</v>
+        <v>501851.8728118659</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>502751.3613570596</v>
+        <v>501851.8728118659</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>480937.3517369321</v>
+        <v>501851.8728118658</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>480937.3517369319</v>
+        <v>501851.8728118659</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>495936.2708986276</v>
+        <v>495936.2708986277</v>
       </c>
       <c r="C2" t="n">
         <v>495936.2708986277</v>
@@ -26320,40 +26320,40 @@
         <v>495936.2708986277</v>
       </c>
       <c r="E2" t="n">
-        <v>466159.9017608574</v>
+        <v>487343.2653270507</v>
       </c>
       <c r="F2" t="n">
-        <v>466159.9017608575</v>
+        <v>487343.2653270506</v>
       </c>
       <c r="G2" t="n">
-        <v>487343.2653270506</v>
+        <v>487343.2653270507</v>
       </c>
       <c r="H2" t="n">
-        <v>487343.2653270506</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="I2" t="n">
         <v>487343.2653270507</v>
       </c>
       <c r="J2" t="n">
-        <v>487343.2653270507</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="K2" t="n">
-        <v>487343.2653270507</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="L2" t="n">
         <v>487343.2653270508</v>
       </c>
       <c r="M2" t="n">
-        <v>488792.9691899939</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="N2" t="n">
-        <v>488792.9691899937</v>
+        <v>487343.2653270507</v>
       </c>
       <c r="O2" t="n">
-        <v>467609.6056238005</v>
+        <v>487343.2653270507</v>
       </c>
       <c r="P2" t="n">
-        <v>467609.6056238005</v>
+        <v>487343.2653270508</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501644</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.5955499825</v>
       </c>
       <c r="E3" t="n">
-        <v>232840.2019932545</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>20319.08402319048</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877273</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622098</v>
       </c>
       <c r="M3" t="n">
-        <v>194039.1781017873</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>199828.8262465156</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>163226.8987932457</v>
       </c>
       <c r="D4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>65044.9100039417</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="F4" t="n">
-        <v>65044.91000394169</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="G4" t="n">
+        <v>68000.69828933277</v>
+      </c>
+      <c r="H4" t="n">
         <v>68000.69828933279</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>68000.69828933281</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>68000.69828933279</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>68000.69828933281</v>
       </c>
-      <c r="K4" t="n">
-        <v>68000.69828933279</v>
-      </c>
       <c r="L4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="M4" t="n">
-        <v>70264.75803017545</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="N4" t="n">
-        <v>70264.75803017545</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="O4" t="n">
-        <v>67308.96974478435</v>
+        <v>68000.69828933277</v>
       </c>
       <c r="P4" t="n">
-        <v>67308.96974478435</v>
+        <v>68000.69828933271</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800263</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73210.87662461885</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>73210.87662461885</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26497,19 +26497,19 @@
         <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77341.26571663666</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77341.26571663666</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>72833.903735463</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>72833.903735463</v>
+        <v>77718.23860579255</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>94491.35585517978</v>
       </c>
       <c r="C6" t="n">
-        <v>236682.6565148898</v>
+        <v>194165.3904023629</v>
       </c>
       <c r="D6" t="n">
-        <v>236682.6565148897</v>
+        <v>253559.5095342137</v>
       </c>
       <c r="E6" t="n">
-        <v>95063.91313904239</v>
+        <v>159245.9948714931</v>
       </c>
       <c r="F6" t="n">
-        <v>327904.115132297</v>
+        <v>341601.1040925427</v>
       </c>
       <c r="G6" t="n">
-        <v>321305.2444087348</v>
+        <v>341601.1040925427</v>
       </c>
       <c r="H6" t="n">
-        <v>341624.3284319253</v>
+        <v>341601.104092543</v>
       </c>
       <c r="I6" t="n">
-        <v>341624.3284319254</v>
+        <v>341601.1040925426</v>
       </c>
       <c r="J6" t="n">
-        <v>230609.8630869351</v>
+        <v>230586.6387475526</v>
       </c>
       <c r="K6" t="n">
-        <v>341624.3284319254</v>
+        <v>288555.2494537701</v>
       </c>
       <c r="L6" t="n">
-        <v>341624.3284319254</v>
+        <v>332208.8023659207</v>
       </c>
       <c r="M6" t="n">
-        <v>147147.7673413945</v>
+        <v>189400.9331545552</v>
       </c>
       <c r="N6" t="n">
-        <v>341186.9454431817</v>
+        <v>341601.1040925427</v>
       </c>
       <c r="O6" t="n">
-        <v>327466.7321435532</v>
+        <v>341601.1040925427</v>
       </c>
       <c r="P6" t="n">
-        <v>327466.7321435531</v>
+        <v>341601.104092543</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26790,16 +26790,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1204.126260273336</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1204.126260273336</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1268.27292082779</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1268.27292082779</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1194.138677716381</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1194.138677716381</v>
+        <v>1278.260503384746</v>
       </c>
     </row>
   </sheetData>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483601</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939254</v>
       </c>
       <c r="E4" t="n">
-        <v>779.830402753232</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>74.13424311140881</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483601</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939254</v>
       </c>
       <c r="M4" t="n">
-        <v>769.842820196277</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27258,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483601</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939254</v>
       </c>
       <c r="M4" t="n">
-        <v>779.830402753232</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>74.13424311140881</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>332.0675223771106</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27388,16 +27388,16 @@
         <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>224.8895302449982</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -27555,7 +27555,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>162.5371136876087</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>72.78996144619879</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>329.4810505929729</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>104.2627093945165</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27670,13 +27670,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
@@ -27783,7 +27783,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>140.8783988682119</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>67.8842041684461</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>383.6593544276682</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>9.465190568306582</v>
+        <v>229.9275620014095</v>
       </c>
       <c r="D8" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>141.9957177825276</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>2.739084921992824</v>
+        <v>-8.810729923425242e-13</v>
       </c>
       <c r="U35" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>2.739084921992824</v>
+        <v>2.922225424602705e-12</v>
       </c>
       <c r="P37" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>2.739084921992824</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.739084921992824</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,10 +34790,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>371.7091627680287</v>
+        <v>409.401749030468</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>72.8058955861128</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741799</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,10 +35033,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>110.4038313238416</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>407.1525905495951</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,16 +35410,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N11" t="n">
-        <v>20.72895681336013</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908064</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35647,7 +35647,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35656,7 +35656,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>20.72895681336013</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908064</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,7 +35811,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35887,13 +35887,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352447</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36127,10 +36127,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>753.9218057523904</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36379,7 +36379,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36999,10 +36999,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>166.3723625076623</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37382,10 +37382,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>90.1933123610735</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>280.2728774180894</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>425.1733089300343</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>466.8642032865512</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>449.4651487175934</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>426.6474174732873</v>
+        <v>423.9083325512975</v>
       </c>
       <c r="P37" t="n">
-        <v>353.7561495384998</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>172.6307767041467</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850282</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>826.7427904821006</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37561,10 +37561,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>90.1933123610735</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>280.2728774180894</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>425.1733089300343</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>466.8642032865512</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>449.4651487175934</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>426.6474174732873</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>353.7561495384998</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>172.6307767041467</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,19 +37789,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>533.2011409904617</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>90.19331236107351</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>280.2728774180894</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>425.1733089300343</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>466.8642032865515</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>449.4651487175934</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>426.6474174732871</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>353.7561495384998</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>172.6307767041467</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>420.8333647221017</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -38023,7 +38023,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
         <v>661.3192390158827</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>90.19331236107351</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
-        <v>280.2728774180894</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>425.1733089300343</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
-        <v>466.8642032865513</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>449.4651487175934</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>426.6474174732873</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>353.7561495384998</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>172.6307767041467</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
